--- a/data/trans_orig/IP05A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP05A01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E95B92-3C2B-49D9-B49C-C5A6EB9B8E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECEF342A-6DCF-4106-8391-73CECFC468C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1369AF26-9B34-45E3-95B5-14E1086EA6A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CC2A1C4-8AFB-47EE-B9B0-3E4DE0DBF6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="441">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -107,1252 +107,1261 @@
     <t>53,18%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
   </si>
   <si>
     <t>56,23%</t>
   </si>
   <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
   </si>
   <si>
     <t>54,73%</t>
   </si>
   <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
   </si>
   <si>
     <t>35,71%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
   </si>
   <si>
     <t>30,66%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
   </si>
   <si>
     <t>33,14%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>15,4%</t>
   </si>
   <si>
     <t>13,47%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A735E6-001F-4AE2-AD31-50F95092DF15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EB62FA-FCD6-4487-9480-6E6327B22833}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2349,7 +2358,7 @@
         <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>258</v>
@@ -2358,13 +2367,13 @@
         <v>171474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>548</v>
@@ -2373,13 +2382,13 @@
         <v>365222</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2403,13 @@
         <v>49337</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -2409,13 +2418,13 @@
         <v>45026</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>142</v>
@@ -2424,13 +2433,13 @@
         <v>94362</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,7 +2495,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2498,13 +2507,13 @@
         <v>85986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>136</v>
@@ -2513,13 +2522,13 @@
         <v>93998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>264</v>
@@ -2528,13 +2537,13 @@
         <v>179984</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2558,13 @@
         <v>57152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
@@ -2564,13 +2573,13 @@
         <v>61272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>175</v>
@@ -2579,13 +2588,13 @@
         <v>118424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2609,13 @@
         <v>15000</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -2615,13 +2624,13 @@
         <v>18796</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -2630,13 +2639,13 @@
         <v>33797</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2713,13 @@
         <v>364726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>513</v>
@@ -2719,13 +2728,13 @@
         <v>343698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>1063</v>
@@ -2734,13 +2743,13 @@
         <v>708424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2764,13 @@
         <v>282640</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>390</v>
@@ -2770,13 +2779,13 @@
         <v>260445</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>812</v>
@@ -2785,13 +2794,13 @@
         <v>543085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2815,13 @@
         <v>73989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>113</v>
@@ -2821,13 +2830,13 @@
         <v>75665</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -2836,13 +2845,13 @@
         <v>149653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,7 +2907,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37D899D-3C62-4C8B-A355-3A94EAA6BA27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F5E0AC-D216-405D-89E9-4F69ABAF4190}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2935,7 +2944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3240,13 +3249,13 @@
         <v>59772</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -3255,13 +3264,13 @@
         <v>65496</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>179</v>
@@ -3270,13 +3279,13 @@
         <v>125269</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3300,13 @@
         <v>20514</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -3306,13 +3315,13 @@
         <v>21137</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -3321,13 +3330,13 @@
         <v>41651</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3351,13 @@
         <v>5906</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3357,13 +3366,13 @@
         <v>4968</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3372,13 +3381,13 @@
         <v>10873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3455,13 @@
         <v>353580</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H12" s="7">
         <v>463</v>
@@ -3461,13 +3470,13 @@
         <v>318976</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M12" s="7">
         <v>970</v>
@@ -3476,13 +3485,13 @@
         <v>672557</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3506,13 @@
         <v>112095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>153</v>
@@ -3512,13 +3521,13 @@
         <v>106821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>314</v>
@@ -3527,13 +3536,13 @@
         <v>218916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3557,13 @@
         <v>28771</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -3563,13 +3572,13 @@
         <v>26412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -3578,13 +3587,13 @@
         <v>55183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,7 +3649,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3652,13 +3661,13 @@
         <v>117482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>151</v>
@@ -3667,13 +3676,13 @@
         <v>106453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>317</v>
@@ -3682,13 +3691,13 @@
         <v>223935</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3712,13 @@
         <v>46228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -3718,13 +3727,13 @@
         <v>42029</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -3733,13 +3742,13 @@
         <v>88257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3763,13 @@
         <v>7911</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -3769,13 +3778,13 @@
         <v>18330</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3784,13 +3793,13 @@
         <v>26240</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3867,13 @@
         <v>531476</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>710</v>
@@ -3873,13 +3882,13 @@
         <v>490926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>1467</v>
@@ -3888,13 +3897,13 @@
         <v>1022402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3918,13 @@
         <v>178837</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -3924,13 +3933,13 @@
         <v>169987</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M21" s="7">
         <v>499</v>
@@ -3939,13 +3948,13 @@
         <v>348825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3969,13 @@
         <v>42587</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -3975,13 +3984,13 @@
         <v>49709</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -3990,13 +3999,13 @@
         <v>92297</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66B412A-93F3-410B-9FB6-CEAC5FFACCF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2038FF0C-AFEF-47D2-8B3C-E30351B3656E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4089,7 +4098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4378,13 +4387,13 @@
         <v>52527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -4393,13 +4402,13 @@
         <v>42477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>137</v>
@@ -4408,13 +4417,13 @@
         <v>95005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4438,13 @@
         <v>11542</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -4444,13 +4453,13 @@
         <v>15038</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>41</v>
@@ -4459,13 +4468,13 @@
         <v>26581</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4489,13 @@
         <v>4544</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4495,13 +4504,13 @@
         <v>1863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4510,13 +4519,13 @@
         <v>6407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4593,13 @@
         <v>346155</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H12" s="7">
         <v>518</v>
@@ -4599,13 +4608,13 @@
         <v>342806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
         <v>1007</v>
@@ -4614,13 +4623,13 @@
         <v>688961</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4644,13 @@
         <v>114933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>159</v>
@@ -4650,13 +4659,13 @@
         <v>104061</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
@@ -4665,13 +4674,13 @@
         <v>218994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4695,13 @@
         <v>27647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -4701,13 +4710,13 @@
         <v>24255</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4716,13 +4725,13 @@
         <v>51902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,7 +4787,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4790,13 +4799,13 @@
         <v>142775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>195</v>
@@ -4805,13 +4814,13 @@
         <v>131307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>402</v>
@@ -4820,13 +4829,13 @@
         <v>274081</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4850,13 @@
         <v>34961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -4856,13 +4865,13 @@
         <v>29444</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -4871,13 +4880,13 @@
         <v>64405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4901,13 @@
         <v>9759</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -4907,13 +4916,13 @@
         <v>11952</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -4922,13 +4931,13 @@
         <v>21711</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +5005,13 @@
         <v>541457</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>776</v>
@@ -5011,13 +5020,13 @@
         <v>516591</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>1546</v>
@@ -5026,13 +5035,13 @@
         <v>1058048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5056,13 @@
         <v>161437</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H21" s="7">
         <v>228</v>
@@ -5062,13 +5071,13 @@
         <v>148543</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M21" s="7">
         <v>462</v>
@@ -5077,13 +5086,13 @@
         <v>309980</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5107,13 @@
         <v>41950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -5113,13 +5122,13 @@
         <v>38070</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -5128,13 +5137,13 @@
         <v>80020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,7 +5199,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5210,7 +5219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD81EDE6-EA99-477F-9E52-225043F53C77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39325FF5-A128-42BF-B76D-0DAD9E6347D9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5227,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5516,13 +5525,13 @@
         <v>41176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -5531,13 +5540,13 @@
         <v>42040</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>115</v>
@@ -5546,13 +5555,13 @@
         <v>83216</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5576,13 @@
         <v>10825</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -5582,13 +5591,13 @@
         <v>5916</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>203</v>
+        <v>352</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -5597,13 +5606,13 @@
         <v>16741</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5627,13 @@
         <v>6756</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5633,13 +5642,13 @@
         <v>3245</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5648,13 +5657,13 @@
         <v>10002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5731,13 @@
         <v>404827</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H12" s="7">
         <v>519</v>
@@ -5737,13 +5746,13 @@
         <v>350179</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M12" s="7">
         <v>1059</v>
@@ -5752,13 +5761,13 @@
         <v>755007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5782,13 @@
         <v>64579</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -5788,13 +5797,13 @@
         <v>83823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -5803,13 +5812,13 @@
         <v>148402</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5833,13 @@
         <v>22958</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -5839,13 +5848,13 @@
         <v>15966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -5854,13 +5863,13 @@
         <v>38924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5925,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5928,13 +5937,13 @@
         <v>136759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
@@ -5943,13 +5952,13 @@
         <v>121886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
@@ -5958,13 +5967,13 @@
         <v>258645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5988,13 @@
         <v>26552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -5994,13 +6003,13 @@
         <v>20376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -6009,13 +6018,13 @@
         <v>46928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6039,13 @@
         <v>10370</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -6045,13 +6054,13 @@
         <v>9108</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -6060,13 +6069,13 @@
         <v>19478</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6143,13 @@
         <v>582762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>760</v>
@@ -6149,13 +6158,13 @@
         <v>514105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>1551</v>
@@ -6164,13 +6173,13 @@
         <v>1096868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6194,13 @@
         <v>101955</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H21" s="7">
         <v>141</v>
@@ -6200,13 +6209,13 @@
         <v>110115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="M21" s="7">
         <v>272</v>
@@ -6215,13 +6224,13 @@
         <v>212071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6245,13 @@
         <v>40085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>207</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6251,13 +6260,13 @@
         <v>28319</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -6266,13 +6275,13 @@
         <v>68404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,7 +6337,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
